--- a/data/dummy/advocacy_impact_dummy_data.xlsx
+++ b/data/dummy/advocacy_impact_dummy_data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentmatton/climact_dev/hackaton_ecf_aim/data/dummy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9828ECB-7FFD-9F41-BC73-77410D22B187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E9BC34-C0FE-3D47-BD1B-C8EDE8E5FD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mentions_support" sheetId="1" r:id="rId1"/>
-    <sheet name="campaign_mentions" sheetId="2" r:id="rId2"/>
+    <sheet name="topic_mentions" sheetId="2" r:id="rId2"/>
     <sheet name="mep_sentiment" sheetId="3" r:id="rId3"/>
-    <sheet name="campaigns" sheetId="4" r:id="rId4"/>
+    <sheet name="interventions" sheetId="4" r:id="rId4"/>
     <sheet name="voting_results" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -35,9 +35,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>sentiment</t>
   </si>
   <si>
@@ -65,7 +62,7 @@
     <t>DUMMY</t>
   </si>
   <si>
-    <t>Car taxation</t>
+    <t>topic</t>
   </si>
   <si>
     <t>Climate policy</t>
@@ -74,9 +71,6 @@
     <t>Green energy subsidies</t>
   </si>
   <si>
-    <t>campaign</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -168,6 +162,12 @@
   </si>
   <si>
     <t>tweet</t>
+  </si>
+  <si>
+    <t>Nature Restauration Law</t>
+  </si>
+  <si>
+    <t>content</t>
   </si>
 </sst>
 </file>
@@ -566,7 +566,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -595,7 +595,7 @@
         <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -606,7 +606,7 @@
         <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -617,7 +617,7 @@
         <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -630,7 +630,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -646,13 +646,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -660,13 +660,13 @@
         <v>45293</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -674,13 +674,13 @@
         <v>45325</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -688,13 +688,13 @@
         <v>45355</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -702,13 +702,13 @@
         <v>45387</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -716,13 +716,13 @@
         <v>45418</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -730,13 +730,13 @@
         <v>45449</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -744,13 +744,13 @@
         <v>45480</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -758,13 +758,13 @@
         <v>45511</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -772,13 +772,13 @@
         <v>45542</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -786,13 +786,13 @@
         <v>45573</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -800,13 +800,13 @@
         <v>45293</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -814,13 +814,13 @@
         <v>45325</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -828,13 +828,13 @@
         <v>45355</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -842,13 +842,13 @@
         <v>45387</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -856,13 +856,13 @@
         <v>45418</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -870,13 +870,13 @@
         <v>45449</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -884,13 +884,13 @@
         <v>45480</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -898,13 +898,13 @@
         <v>45511</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -912,13 +912,13 @@
         <v>45542</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -926,13 +926,13 @@
         <v>45573</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +945,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -962,19 +962,19 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -985,16 +985,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1005,16 +1005,16 @@
         <v>-1</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1025,16 +1025,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -1045,16 +1045,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1065,16 +1065,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1085,16 +1085,16 @@
         <v>-1</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1105,16 +1105,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1125,16 +1125,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -1145,16 +1145,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1165,16 +1165,16 @@
         <v>-1</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1185,16 +1185,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1205,16 +1205,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1227,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1240,19 +1240,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1260,16 +1260,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C2" s="3">
         <v>45293</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1277,16 +1277,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3">
         <v>45325</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3">
         <v>45355</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1311,16 +1311,16 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3">
         <v>45387</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1328,16 +1328,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3">
         <v>45418</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1345,16 +1345,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3">
         <v>45449</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1362,16 +1362,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3">
         <v>45480</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1379,16 +1379,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3">
         <v>45511</v>
       </c>
       <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1396,16 +1396,16 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3">
         <v>45542</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1413,16 +1413,16 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3">
         <v>45573</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1484,16 +1484,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1507,7 +1507,7 @@
         <v>720</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1521,7 +1521,7 @@
         <v>720</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1535,12 +1535,12 @@
         <v>720</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/dummy/advocacy_impact_dummy_data.xlsx
+++ b/data/dummy/advocacy_impact_dummy_data.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ember\Hackathon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentmatton/climact_dev/hackaton_ecf_aim/data/dummy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3F0D1A-1BE0-4406-A03F-F71602AB0561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4203B85-A787-F74F-B090-DD365B439F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23240" windowHeight="12440" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mentions_support" sheetId="1" r:id="rId1"/>
     <sheet name="topic_mentions" sheetId="2" r:id="rId2"/>
     <sheet name="dummy_mentions" sheetId="6" r:id="rId3"/>
-    <sheet name="mep_sentiment" sheetId="3" r:id="rId4"/>
-    <sheet name="interventions" sheetId="4" r:id="rId5"/>
-    <sheet name="voting_results" sheetId="5" r:id="rId6"/>
+    <sheet name="mep_sentiment" sheetId="7" r:id="rId4"/>
+    <sheet name="copy_mep_sentiment" sheetId="3" r:id="rId5"/>
+    <sheet name="interventions" sheetId="4" r:id="rId6"/>
+    <sheet name="voting_results" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="97">
   <si>
     <t>mentions_count</t>
   </si>
@@ -316,22 +317,19 @@
     <t>Reach</t>
   </si>
   <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>Petition</t>
-  </si>
-  <si>
-    <t>Protest</t>
+    <t>Report: Guidelines for Nature Restoration Law</t>
+  </si>
+  <si>
+    <t>Report: Best practices on biodiversity protection</t>
+  </si>
+  <si>
+    <t>Report: Social impacts of biodiversity protection</t>
+  </si>
+  <si>
+    <t>Petition: Restore nature now</t>
+  </si>
+  <si>
+    <t>Protest: Diversity not degradation</t>
   </si>
 </sst>
 </file>
@@ -340,7 +338,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="170" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -417,7 +415,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -430,9 +428,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -442,13 +437,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,14 +753,14 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10</v>
       </c>
@@ -788,7 +782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>5</v>
       </c>
@@ -799,7 +793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>7</v>
       </c>
@@ -823,15 +817,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.68359375" customWidth="1"/>
-    <col min="2" max="2" width="90.89453125" customWidth="1"/>
-    <col min="3" max="3" width="9.15625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="90.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -844,9 +838,9 @@
       <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>45293</v>
       </c>
@@ -861,7 +855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>45325</v>
       </c>
@@ -876,7 +870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>45355</v>
       </c>
@@ -891,7 +885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45387</v>
       </c>
@@ -906,7 +900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45418</v>
       </c>
@@ -921,7 +915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45449</v>
       </c>
@@ -936,7 +930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45480</v>
       </c>
@@ -951,7 +945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45511</v>
       </c>
@@ -966,7 +960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>45542</v>
       </c>
@@ -981,7 +975,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>45573</v>
       </c>
@@ -996,7 +990,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>45293</v>
       </c>
@@ -1011,7 +1005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>45325</v>
       </c>
@@ -1026,7 +1020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>45355</v>
       </c>
@@ -1041,7 +1035,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>45387</v>
       </c>
@@ -1056,7 +1050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>45418</v>
       </c>
@@ -1071,7 +1065,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>45449</v>
       </c>
@@ -1086,7 +1080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>45480</v>
       </c>
@@ -1101,7 +1095,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>45511</v>
       </c>
@@ -1116,7 +1110,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>45542</v>
       </c>
@@ -1145,350 +1139,350 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.1015625" customWidth="1"/>
-    <col min="4" max="4" width="13.1015625" customWidth="1"/>
-    <col min="5" max="5" width="9.7890625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="49.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:5" ht="176" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="9" t="s">
+    <row r="9" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="9" t="s">
+    <row r="10" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="172.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:5" ht="192" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:5" ht="160" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="129.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="9" t="s">
+    <row r="16" spans="1:5" ht="144" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="100.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="9" t="s">
+    <row r="18" spans="1:5" ht="112" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:5" ht="96" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="115.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:5" ht="128" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1498,23 +1492,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726C5623-8D8A-4EBB-9563-5314DC718637}">
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.3125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.47265625" customWidth="1"/>
-    <col min="4" max="4" width="20.05078125" customWidth="1"/>
-    <col min="5" max="5" width="18.734375" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1534,29 +1528,795 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>45412</v>
+        <v>44927</v>
       </c>
       <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>44936</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44938</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44946</v>
+      </c>
+      <c r="B5">
+        <v>0.2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44948</v>
+      </c>
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44951</v>
+      </c>
+      <c r="B7">
+        <v>0.4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44952</v>
+      </c>
+      <c r="B8">
+        <v>0.6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44953</v>
+      </c>
+      <c r="B9">
+        <v>0.6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44954</v>
+      </c>
+      <c r="B10">
+        <v>0.6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44959</v>
+      </c>
+      <c r="B11">
+        <v>0.6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B12">
+        <v>0.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44965</v>
+      </c>
+      <c r="B13">
+        <v>0.4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44978</v>
+      </c>
+      <c r="B14">
+        <v>0.4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B18">
+        <v>0.4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B19">
+        <v>0.4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>45056</v>
+      </c>
+      <c r="B20">
+        <v>0.4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>45057</v>
+      </c>
+      <c r="B21">
+        <v>0.4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B22">
+        <v>0.3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B23">
+        <v>0.2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B24">
+        <v>0.2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B25">
+        <v>0.2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>45117</v>
+      </c>
+      <c r="B26">
+        <v>0.2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B28">
+        <v>0.1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>45158</v>
+      </c>
+      <c r="B29">
+        <v>0.1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B30">
+        <v>0.2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B31">
+        <v>0.3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B32">
+        <v>0.3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B33">
+        <v>0.4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B34">
+        <v>0.5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B35">
+        <v>0.6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B36">
+        <v>0.7</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B37">
+        <v>0.7</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B38">
+        <v>0.7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>45269</v>
+      </c>
+      <c r="B39">
+        <v>0.7</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B40">
+        <v>0.7</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>45276</v>
+      </c>
+      <c r="B41">
+        <v>0.8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D41" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B42">
         <v>1</v>
       </c>
+      <c r="C42" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>44927</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
         <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>45443</v>
+        <v>44928</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1567,16 +2327,16 @@
       <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>45473</v>
+        <v>44929</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1587,16 +2347,16 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>87</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>45504</v>
+        <v>44930</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1607,16 +2367,16 @@
       <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>81</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>45535</v>
+        <v>44931</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1627,16 +2387,16 @@
       <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>82</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>45565</v>
+        <v>44932</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1647,39 +2407,25 @@
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>77</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
+        <v>44933</v>
+      </c>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>45412</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
-        <v>45443</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>90</v>
@@ -1687,19 +2433,19 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>88</v>
+      <c r="E9" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>90</v>
@@ -1707,19 +2453,19 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>80</v>
+      <c r="E10" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>90</v>
@@ -1727,19 +2473,19 @@
       <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>77</v>
+      <c r="E11" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C12" t="s">
         <v>90</v>
@@ -1747,19 +2493,19 @@
       <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>79</v>
+      <c r="E12" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>90</v>
@@ -1767,10 +2513,30 @@
       <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1780,22 +2546,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.62890625" customWidth="1"/>
-    <col min="3" max="3" width="20.15625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1811,82 +2578,82 @@
       <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="9">
         <v>45056</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="10">
-        <v>45003</v>
+        <v>44951</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="10">
+        <v>45122</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="10">
+        <v>45200</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="10">
-        <v>44887</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="11">
-        <v>44951</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
       </c>
       <c r="E5" t="s">
         <v>95</v>
@@ -1895,213 +2662,53 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="11">
-        <v>44803</v>
+      <c r="C6" s="10">
+        <v>45275</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F6">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="11">
-        <v>45122</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="11">
-        <v>45108</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="11">
-        <v>45000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="11">
-        <v>45038</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="12">
-        <v>45082</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="12">
-        <v>45117</v>
-      </c>
-      <c r="D12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="12">
-        <v>45158</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="12">
-        <v>45184</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="3"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
@@ -2109,15 +2716,15 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.47265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83984375" customWidth="1"/>
-    <col min="4" max="4" width="23.15625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -2131,7 +2738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>329</v>
       </c>
@@ -2145,7 +2752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>200</v>
       </c>
@@ -2159,7 +2766,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>200</v>
       </c>
@@ -2173,7 +2780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="13:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="13:13" x14ac:dyDescent="0.2">
       <c r="M23" t="s">
         <v>15</v>
       </c>

--- a/data/dummy/advocacy_impact_dummy_data.xlsx
+++ b/data/dummy/advocacy_impact_dummy_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincentmatton/climact_dev/hackaton_ecf_aim/data/dummy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7608D6C9-EE78-3049-A3C4-A0F83AB68E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F61C740-532E-804C-89AD-D9DE08E665DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="760" windowWidth="34560" windowHeight="20360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mentions_support" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="115">
   <si>
     <t>mentions_count</t>
   </si>
@@ -330,9 +330,6 @@
   </si>
   <si>
     <t>total_seats</t>
-  </si>
-  <si>
-    <t>t</t>
   </si>
   <si>
     <t>Anna Schmidt - European People's Party (EPP) : The Nature Restoration Law is crucial for combating climate change and preserving biodiversity.</t>
@@ -1789,7 +1786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -1822,7 +1819,7 @@
         <v>45293</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1836,7 +1833,7 @@
         <v>45325</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>10</v>
@@ -1850,7 +1847,7 @@
         <v>45355</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1864,7 +1861,7 @@
         <v>45387</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1878,7 +1875,7 @@
         <v>45418</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
@@ -1892,7 +1889,7 @@
         <v>45449</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>11</v>
@@ -1906,7 +1903,7 @@
         <v>45480</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1920,7 +1917,7 @@
         <v>45511</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -1934,7 +1931,7 @@
         <v>45542</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -1948,7 +1945,7 @@
         <v>45573</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1962,7 +1959,7 @@
         <v>45293</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1976,7 +1973,7 @@
         <v>45325</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -1990,7 +1987,7 @@
         <v>45355</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>11</v>
@@ -2004,7 +2001,7 @@
         <v>45387</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -2018,7 +2015,7 @@
         <v>45418</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -2032,7 +2029,7 @@
         <v>45449</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
@@ -2046,7 +2043,7 @@
         <v>45480</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -2060,7 +2057,7 @@
         <v>45511</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>10</v>
@@ -2074,7 +2071,7 @@
         <v>45542</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>11</v>
@@ -8562,7 +8559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8589,10 +8588,10 @@
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
+        <v>270</v>
+      </c>
+      <c r="B2" s="2">
         <v>329</v>
-      </c>
-      <c r="B2" s="2">
-        <v>336</v>
       </c>
       <c r="C2" s="2">
         <v>720</v>
@@ -8648,9 +8647,7 @@
     <row r="21" spans="13:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="13:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="23" spans="13:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="M23" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" spans="13:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="25" spans="13:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
